--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Misc\web0\20230715\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD9B3E6-6662-4070-A830-0F105AA34368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE343669-C616-4543-B277-A3BFCCF129F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>map</t>
   </si>
   <si>
-    <t>cloud</t>
-  </si>
-  <si>
     <t>twitter</t>
   </si>
   <si>
@@ -69,7 +66,10 @@
     <t>Cleaning</t>
   </si>
   <si>
-    <t>Brakes Checking</t>
+    <t>Brakes Testing</t>
+  </si>
+  <si>
+    <t>facebook</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +422,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -438,7 +438,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -446,7 +446,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -454,18 +454,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
